--- a/Notas.xlsx
+++ b/Notas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EIGHTA\GRAFICOS CON PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47151814-B48C-48F3-83CA-427D9E0BC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B0977-769F-4636-9E6D-8BC7D48B3AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5232" yWindow="708" windowWidth="17280" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,11 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +410,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E5"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,16 +433,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>68</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>84</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>78</v>
       </c>
     </row>
@@ -449,16 +450,16 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>74</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>56</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>88</v>
       </c>
     </row>
@@ -466,16 +467,16 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>77</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>73</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>82</v>
       </c>
     </row>
@@ -483,16 +484,16 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>78</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>69</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>87</v>
       </c>
     </row>
